--- a/Daily/ACF - PACF/Log-Prices/NIKKEI residuals - values.xlsx
+++ b/Daily/ACF - PACF/Log-Prices/NIKKEI residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.01702783949093572</v>
+        <v>-0.01667577966115437</v>
       </c>
       <c r="C3">
-        <v>-0.01703442921210093</v>
+        <v>-0.01668223313625544</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03129954827343585</v>
+        <v>0.00843189691639756</v>
       </c>
       <c r="C4">
-        <v>0.03104261922232744</v>
+        <v>0.008162400347332408</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.007761404685816157</v>
+        <v>0.009787602746554389</v>
       </c>
       <c r="C5">
-        <v>-0.006733050445547401</v>
+        <v>0.0100782406956141</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.01173152332491711</v>
+        <v>-0.009625817791258762</v>
       </c>
       <c r="C6">
-        <v>-0.01297677559003809</v>
+        <v>-0.009384142029456425</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.00806900798781769</v>
+        <v>-0.01596853790539729</v>
       </c>
       <c r="C7">
-        <v>-0.008049013947535121</v>
+        <v>-0.01649035496410317</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.01628784241523014</v>
+        <v>-0.0160191465767451</v>
       </c>
       <c r="C8">
-        <v>-0.01589438900245488</v>
+        <v>-0.01654632630548659</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.01226811820220778</v>
+        <v>-0.009672539945679194</v>
       </c>
       <c r="C9">
-        <v>-0.01253217865283719</v>
+        <v>-0.009789850397815809</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.01538114787293578</v>
+        <v>-0.01608675816847702</v>
       </c>
       <c r="C10">
-        <v>-0.01513567263156091</v>
+        <v>-0.01597656500848923</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01583733057625611</v>
+        <v>0.01511640106322747</v>
       </c>
       <c r="C11">
-        <v>0.01574953454555076</v>
+        <v>0.01481594735406763</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.004823893435886225</v>
+        <v>0.005878874133137259</v>
       </c>
       <c r="C12">
-        <v>0.005692814173327527</v>
+        <v>0.006306499049206058</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.02082720461562682</v>
+        <v>-0.02170240625240504</v>
       </c>
       <c r="C13">
-        <v>-0.02256638803377551</v>
+        <v>-0.02227459078182224</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0119059813319066</v>
+        <v>-0.01181551747611806</v>
       </c>
       <c r="C14">
-        <v>-0.01365624546082073</v>
+        <v>-0.01394508811999748</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.005390735135701787</v>
+        <v>-0.00422853271340387</v>
       </c>
       <c r="C15">
-        <v>-0.004686846355525113</v>
+        <v>-0.005007346636912401</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.002820982689293234</v>
+        <v>0.001962560638322644</v>
       </c>
       <c r="C16">
-        <v>0.00288965928265395</v>
+        <v>0.002458376267007298</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02622613367685108</v>
+        <v>0.02578928888050098</v>
       </c>
       <c r="C17">
-        <v>0.02635436309549891</v>
+        <v>0.02636742312784203</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.002052388559778416</v>
+        <v>0.002685066824710576</v>
       </c>
       <c r="C18">
-        <v>0.002397658837253737</v>
+        <v>0.002953322151352635</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.02044254496404968</v>
+        <v>-0.02254103351051121</v>
       </c>
       <c r="C19">
-        <v>-0.02261476299125614</v>
+        <v>-0.02381370307607084</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.005473346817382325</v>
+        <v>0.006243909195249989</v>
       </c>
       <c r="C20">
-        <v>0.003932811210093757</v>
+        <v>0.003878771001893166</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.006541171646318403</v>
+        <v>0.008986217999973161</v>
       </c>
       <c r="C21">
-        <v>0.007546066731920768</v>
+        <v>0.008890101782963704</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.003806740062720943</v>
+        <v>0.002249475812896706</v>
       </c>
       <c r="C22">
-        <v>0.004235627511704285</v>
+        <v>0.004111034573749272</v>
       </c>
     </row>
   </sheetData>
